--- a/data/trans_orig/P21D_4_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Clase-trans_orig.xlsx
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3654</v>
+        <v>3015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002974636233506261</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01855318961844911</v>
+        <v>0.01531102452410184</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3360</v>
+        <v>2990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001488471436483117</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008537276092029759</v>
+        <v>0.007598173041347203</v>
       </c>
     </row>
     <row r="8">
@@ -973,16 +973,16 @@
         <v>196341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>193273</v>
+        <v>193912</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>196927</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9970253637664935</v>
+        <v>0.9970253637664936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9814468103815509</v>
+        <v>0.9846889754758983</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1007,16 +1007,16 @@
         <v>392963</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>390189</v>
+        <v>390559</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>393549</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9985115285635171</v>
+        <v>0.9985115285635168</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9914627239079715</v>
+        <v>0.9924018269586529</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5373</v>
+        <v>4887</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005267679226221417</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0284512927465442</v>
+        <v>0.0258789050324463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5163</v>
+        <v>4843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003611195172213047</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01874489192778344</v>
+        <v>0.01758082788769631</v>
       </c>
     </row>
     <row r="11">
@@ -1174,16 +1174,16 @@
         <v>187842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183464</v>
+        <v>183950</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>188837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9947323207737785</v>
+        <v>0.9947323207737786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9715487072534542</v>
+        <v>0.9741210949675538</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1208,16 +1208,16 @@
         <v>274463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>270295</v>
+        <v>270615</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>275458</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9963888048277871</v>
+        <v>0.9963888048277869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9812551080722165</v>
+        <v>0.9824191721123033</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6944</v>
+        <v>7303</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003525094730269938</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01356726201126724</v>
+        <v>0.01426887462752819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1333,19 +1333,19 @@
         <v>4581</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1865</v>
+        <v>1890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8973</v>
+        <v>8992</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01184667470185617</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004823534066568287</v>
+        <v>0.004887603215637898</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02320691032163413</v>
+        <v>0.02325415310964853</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1354,19 +1354,19 @@
         <v>6385</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3009</v>
+        <v>3254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12318</v>
+        <v>12491</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.007106252393707847</v>
+        <v>0.007106252393707846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00334895695677637</v>
+        <v>0.003621111780461118</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01370999357005555</v>
+        <v>0.01390151646862925</v>
       </c>
     </row>
     <row r="14">
@@ -1383,16 +1383,16 @@
         <v>510031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>504891</v>
+        <v>504532</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>511835</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9964749052697299</v>
+        <v>0.99647490526973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9864327379887321</v>
+        <v>0.9857311253724719</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1404,19 +1404,19 @@
         <v>382085</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>377693</v>
+        <v>377674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384801</v>
+        <v>384776</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9881533252981437</v>
+        <v>0.9881533252981439</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9767930896783659</v>
+        <v>0.9767458468903513</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951764659334317</v>
+        <v>0.9951123967843619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1024</v>
@@ -1425,19 +1425,19 @@
         <v>892116</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>886183</v>
+        <v>886010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>895492</v>
+        <v>895247</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9928937476062922</v>
+        <v>0.9928937476062921</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9862900064299438</v>
+        <v>0.9860984835313704</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9966510430432236</v>
+        <v>0.9963788882195388</v>
       </c>
     </row>
     <row r="15">
@@ -1542,19 +1542,19 @@
         <v>5242</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2344</v>
+        <v>2494</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9892</v>
+        <v>10234</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01351546757286717</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006043706152798854</v>
+        <v>0.006430737502676752</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02550202261246668</v>
+        <v>0.02638502484205428</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1563,19 +1563,19 @@
         <v>5242</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2111</v>
+        <v>2038</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9670</v>
+        <v>10167</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008017258275197321</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003227856868905454</v>
+        <v>0.003116668906973823</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01478894952289971</v>
+        <v>0.01554861617253356</v>
       </c>
     </row>
     <row r="17">
@@ -1605,19 +1605,19 @@
         <v>382639</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>377989</v>
+        <v>377647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>385537</v>
+        <v>385387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9864845324271327</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9744979773875327</v>
+        <v>0.9736149751579456</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9939562938472007</v>
+        <v>0.9935692624973232</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>819</v>
@@ -1626,19 +1626,19 @@
         <v>648646</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>644218</v>
+        <v>643721</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>651777</v>
+        <v>651850</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9919827417248026</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9852110504771006</v>
+        <v>0.9844513838274667</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9967721431310945</v>
+        <v>0.9968833310930263</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>2092</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5499</v>
+        <v>4904</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.005902650626553585</v>
+        <v>0.005902650626553583</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001725292200695533</v>
+        <v>0.00171284745638716</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01551068515220049</v>
+        <v>0.01383490439340343</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1764,19 +1764,19 @@
         <v>2092</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5059</v>
+        <v>5010</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.004433829777936522</v>
+        <v>0.004433829777936521</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001288856463062151</v>
+        <v>0.001222156266378608</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0107193556308187</v>
+        <v>0.01061659246472468</v>
       </c>
     </row>
     <row r="20">
@@ -1806,19 +1806,19 @@
         <v>352408</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>349001</v>
+        <v>349596</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>353888</v>
+        <v>353893</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9940973493734465</v>
+        <v>0.9940973493734464</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9844893148477996</v>
+        <v>0.9861650956065962</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9982747077993045</v>
+        <v>0.9982871525436128</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>536</v>
@@ -1827,19 +1827,19 @@
         <v>469845</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>466878</v>
+        <v>466927</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>471329</v>
+        <v>471360</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9955661702220635</v>
+        <v>0.9955661702220633</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9892806443691816</v>
+        <v>0.9893834075352759</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9987111435369378</v>
+        <v>0.9987778437336216</v>
       </c>
     </row>
     <row r="21">
@@ -1931,19 +1931,19 @@
         <v>3385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1136</v>
+        <v>1005</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9468</v>
+        <v>8105</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002218872468394059</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0007444555941837388</v>
+        <v>0.0006588425457248004</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.006206364299805237</v>
+        <v>0.005313311995393756</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -1952,19 +1952,19 @@
         <v>11916</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7165</v>
+        <v>7659</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18354</v>
+        <v>19061</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.007234221702348605</v>
+        <v>0.007234221702348606</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004350234605200268</v>
+        <v>0.00464965949366</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01114342243496137</v>
+        <v>0.01157206198954006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -1973,19 +1973,19 @@
         <v>15300</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10115</v>
+        <v>9973</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23260</v>
+        <v>23189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00482270987091086</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003188275855571152</v>
+        <v>0.003143646980861841</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007331647956174637</v>
+        <v>0.007309317039484326</v>
       </c>
     </row>
     <row r="23">
@@ -2002,19 +2002,19 @@
         <v>1522069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1515986</v>
+        <v>1517349</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1524318</v>
+        <v>1524449</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9977811275316059</v>
+        <v>0.997781127531606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9937936357001947</v>
+        <v>0.9946866880046062</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9992555444058163</v>
+        <v>0.9993411574542751</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2294</v>
@@ -2023,19 +2023,19 @@
         <v>1635198</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1628760</v>
+        <v>1628053</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1639949</v>
+        <v>1639455</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9927657782976514</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9888565775650386</v>
+        <v>0.9884279380104601</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9956497653947998</v>
+        <v>0.9953503405063399</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3713</v>
@@ -2044,19 +2044,19 @@
         <v>3157267</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3149307</v>
+        <v>3149378</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3162452</v>
+        <v>3162594</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9951772901290891</v>
+        <v>0.9951772901290892</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9926683520438253</v>
+        <v>0.9926906829605157</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9968117241444289</v>
+        <v>0.9968563530191382</v>
       </c>
     </row>
     <row r="24">
